--- a/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,49</t>
+          <t>0,0; 67,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 59,73</t>
+          <t>7,12; 59,34</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,1</t>
+          <t>0,0; 69,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,97</t>
+          <t>0,0; 49,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,9</t>
+          <t>0,0; 45,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 62,22</t>
+          <t>7,82; 60,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 42,02</t>
+          <t>5,37; 38,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,65</t>
+          <t>0,0; 67,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 59,34</t>
+          <t>6,98; 59,73</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,77</t>
+          <t>0,0; 71,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,06</t>
+          <t>0,0; 47,97</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,12</t>
+          <t>0,0; 40,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,82; 60,41</t>
+          <t>9,08; 62,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 38,67</t>
+          <t>7,39; 42,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>25,95%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,49</t>
+          <t>0,0; 70,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,81</t>
+          <t>0,0; 83,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 59,73</t>
+          <t>6,67; 60,79</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,1</t>
+          <t>0,0; 70,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,97</t>
+          <t>0,0; 46,83</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,63%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,9</t>
+          <t>0,0; 42,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 62,22</t>
+          <t>8,83; 62,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 42,02</t>
+          <t>7,12; 42,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,55</t>
+          <t>0,0; 71,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,05</t>
+          <t>0,0; 83,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 60,79</t>
+          <t>6,37; 62,13</t>
         </is>
       </c>
     </row>
@@ -684,12 +685,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,95</t>
+          <t>0,0; 69,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,83</t>
+          <t>0,0; 43,68</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,33</t>
+          <t>0,0; 45,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 62,45</t>
+          <t>8,55; 60,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 42,21</t>
+          <t>7,31; 41,09</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que con respecto a la última vez que lo intentaron se quedó embarazada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 538</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 538</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1508</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2815</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5113</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3055</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>691; 6740</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2063</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2063</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2217</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4998</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5812</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3571</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6071</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>986; 7024</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1816; 10213</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>